--- a/Milestone_report_rubric/flowprocess.xlsx
+++ b/Milestone_report_rubric/flowprocess.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="560" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="2480" yWindow="560" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -61,6 +62,753 @@
 </file>
 
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -2024,6 +2772,324 @@
 </dgm:dataModel>
 </file>
 
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{96117D48-6529-6F4A-9E09-78DCC5B74D1B}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess" loCatId="" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0BC3338A-1176-5140-93D5-3AFCB7C6F0EE}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Input:        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="1" u="none"/>
+            <a:t>' a case '</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{802815BF-C08D-3E43-ABB1-5AFA00C2C6DC}" type="parTrans" cxnId="{162D2639-4ED2-004D-8525-02CC24E11CC8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A21D069B-5F8A-C744-9D65-1FF028E69562}" type="sibTrans" cxnId="{162D2639-4ED2-004D-8525-02CC24E11CC8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F06EA685-F20B-7140-B278-7BAFFFB55DE3}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Higest frequency</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9E605283-1D61-0949-ADD5-28334767C164}" type="parTrans" cxnId="{DBFB6361-88C7-CD4A-B972-E076E1F1B09B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FAF4026B-9536-FE44-8566-C2246A74AA53}" type="sibTrans" cxnId="{DBFB6361-88C7-CD4A-B972-E076E1F1B09B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D78EC93C-13AF-3643-8C51-1D0423530C0F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>'a case of'</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E08AA7A4-2E6C-A640-91E7-CFFB17EECEEB}" type="parTrans" cxnId="{6C3425E5-782A-1B44-A6BC-536E998629E7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{82AF6BCE-619D-774F-8D7F-FD77BED1CA7D}" type="sibTrans" cxnId="{6C3425E5-782A-1B44-A6BC-536E998629E7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3E3E927C-85CA-2D4E-B34B-96F38E32B69B}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Prediction: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="1"/>
+            <a:t>' of '</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{45C1948F-4C7D-904E-96B4-3E2C0B9ACF46}" type="parTrans" cxnId="{BB1AE906-2DE0-2142-B231-A3BAD59B3C5B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B1C88144-E258-0243-809B-4D99E0E1C4F3}" type="sibTrans" cxnId="{BB1AE906-2DE0-2142-B231-A3BAD59B3C5B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{19D8DF05-48CC-2341-A3C1-8DB01B1CCBE4}" type="pres">
+      <dgm:prSet presAssocID="{96117D48-6529-6F4A-9E09-78DCC5B74D1B}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="7"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FDA02DCF-BEB1-0D48-82B9-F701DDF52B4C}" type="pres">
+      <dgm:prSet presAssocID="{0BC3338A-1176-5140-93D5-3AFCB7C6F0EE}" presName="parTx1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AED72805-5689-A54D-8A6E-02E29C77CF3F}" type="pres">
+      <dgm:prSet presAssocID="{0BC3338A-1176-5140-93D5-3AFCB7C6F0EE}" presName="spPre1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BCBC9BFC-A5B6-F24E-A6B0-D52528654255}" type="pres">
+      <dgm:prSet presAssocID="{0BC3338A-1176-5140-93D5-3AFCB7C6F0EE}" presName="chLin1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E6290DE8-7D5E-AA4F-BE21-3F93D28BBFF6}" type="pres">
+      <dgm:prSet presAssocID="{9E605283-1D61-0949-ADD5-28334767C164}" presName="Name11" presStyleLbl="parChTrans1D1" presStyleIdx="0" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EC28B2C8-1BB1-1C4B-B157-7FE753C5FD00}" type="pres">
+      <dgm:prSet presAssocID="{9E605283-1D61-0949-ADD5-28334767C164}" presName="Name31" presStyleLbl="parChTrans1D1" presStyleIdx="1" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{799F9B6E-CC5E-DD48-98F7-CA3E5CF81D86}" type="pres">
+      <dgm:prSet presAssocID="{F06EA685-F20B-7140-B278-7BAFFFB55DE3}" presName="txAndLines1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BD0C4F9D-9971-3B4E-9CEC-8AF5755ABE5F}" type="pres">
+      <dgm:prSet presAssocID="{F06EA685-F20B-7140-B278-7BAFFFB55DE3}" presName="anchor1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{59E0E241-0B3F-734D-8356-EEEBB9F2DBF2}" type="pres">
+      <dgm:prSet presAssocID="{F06EA685-F20B-7140-B278-7BAFFFB55DE3}" presName="backup1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{31AAF45C-1F15-4048-A1FE-BB90CE1F0BDE}" type="pres">
+      <dgm:prSet presAssocID="{F06EA685-F20B-7140-B278-7BAFFFB55DE3}" presName="preLine1" presStyleLbl="parChTrans1D1" presStyleIdx="2" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D69FFA80-03F9-B349-A902-DB56D22611E7}" type="pres">
+      <dgm:prSet presAssocID="{F06EA685-F20B-7140-B278-7BAFFFB55DE3}" presName="desTx1" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{34D8C236-7DAB-2A49-8A5B-EE83D244A943}" type="pres">
+      <dgm:prSet presAssocID="{F06EA685-F20B-7140-B278-7BAFFFB55DE3}" presName="postLine1" presStyleLbl="parChTrans1D1" presStyleIdx="3" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7A32FFEF-1F0D-8E48-A45A-6508DB0DA099}" type="pres">
+      <dgm:prSet presAssocID="{E08AA7A4-2E6C-A640-91E7-CFFB17EECEEB}" presName="Name11" presStyleLbl="parChTrans1D1" presStyleIdx="4" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4A72B8BE-4FD9-2347-AF8B-42B58B60BF66}" type="pres">
+      <dgm:prSet presAssocID="{E08AA7A4-2E6C-A640-91E7-CFFB17EECEEB}" presName="Name31" presStyleLbl="parChTrans1D1" presStyleIdx="5" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D5FA6478-DDEE-4443-AEA5-28D2994E077B}" type="pres">
+      <dgm:prSet presAssocID="{D78EC93C-13AF-3643-8C51-1D0423530C0F}" presName="txAndLines1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{75485C8F-748E-0949-B92A-21EF7C3A4B2C}" type="pres">
+      <dgm:prSet presAssocID="{D78EC93C-13AF-3643-8C51-1D0423530C0F}" presName="anchor1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3A28DF44-8E8B-DF42-87CB-A5F3C628B7CD}" type="pres">
+      <dgm:prSet presAssocID="{D78EC93C-13AF-3643-8C51-1D0423530C0F}" presName="backup1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{33FB7B96-688C-594B-A2BF-B4DA17105CA4}" type="pres">
+      <dgm:prSet presAssocID="{D78EC93C-13AF-3643-8C51-1D0423530C0F}" presName="preLine1" presStyleLbl="parChTrans1D1" presStyleIdx="6" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E09D7416-4BCB-F34F-A30D-7FF8E48C3BBC}" type="pres">
+      <dgm:prSet presAssocID="{D78EC93C-13AF-3643-8C51-1D0423530C0F}" presName="desTx1" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{802A401E-FB3B-7741-A96B-ACF8DF11A621}" type="pres">
+      <dgm:prSet presAssocID="{D78EC93C-13AF-3643-8C51-1D0423530C0F}" presName="postLine1" presStyleLbl="parChTrans1D1" presStyleIdx="7" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{67B3E75B-1795-E34E-981E-4C9AD004BF2C}" type="pres">
+      <dgm:prSet presAssocID="{0BC3338A-1176-5140-93D5-3AFCB7C6F0EE}" presName="spPost1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5EE96BBA-121F-F847-BD1D-239B46699033}" type="pres">
+      <dgm:prSet presAssocID="{3E3E927C-85CA-2D4E-B34B-96F38E32B69B}" presName="parTx2" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{9F4D81EC-1CCA-F541-BDF6-4A9D64696A95}" type="presOf" srcId="{0BC3338A-1176-5140-93D5-3AFCB7C6F0EE}" destId="{FDA02DCF-BEB1-0D48-82B9-F701DDF52B4C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{DBFB6361-88C7-CD4A-B972-E076E1F1B09B}" srcId="{0BC3338A-1176-5140-93D5-3AFCB7C6F0EE}" destId="{F06EA685-F20B-7140-B278-7BAFFFB55DE3}" srcOrd="0" destOrd="0" parTransId="{9E605283-1D61-0949-ADD5-28334767C164}" sibTransId="{FAF4026B-9536-FE44-8566-C2246A74AA53}"/>
+    <dgm:cxn modelId="{6C3425E5-782A-1B44-A6BC-536E998629E7}" srcId="{0BC3338A-1176-5140-93D5-3AFCB7C6F0EE}" destId="{D78EC93C-13AF-3643-8C51-1D0423530C0F}" srcOrd="1" destOrd="0" parTransId="{E08AA7A4-2E6C-A640-91E7-CFFB17EECEEB}" sibTransId="{82AF6BCE-619D-774F-8D7F-FD77BED1CA7D}"/>
+    <dgm:cxn modelId="{A9BC37D8-8631-2C4D-AF7E-669E465540BE}" type="presOf" srcId="{F06EA685-F20B-7140-B278-7BAFFFB55DE3}" destId="{D69FFA80-03F9-B349-A902-DB56D22611E7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{9040BDB5-0F41-C84C-9EB9-3E1102C36E32}" type="presOf" srcId="{3E3E927C-85CA-2D4E-B34B-96F38E32B69B}" destId="{5EE96BBA-121F-F847-BD1D-239B46699033}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{162D2639-4ED2-004D-8525-02CC24E11CC8}" srcId="{96117D48-6529-6F4A-9E09-78DCC5B74D1B}" destId="{0BC3338A-1176-5140-93D5-3AFCB7C6F0EE}" srcOrd="0" destOrd="0" parTransId="{802815BF-C08D-3E43-ABB1-5AFA00C2C6DC}" sibTransId="{A21D069B-5F8A-C744-9D65-1FF028E69562}"/>
+    <dgm:cxn modelId="{36F72543-BC28-8B49-A13C-1A5F7EB27136}" type="presOf" srcId="{96117D48-6529-6F4A-9E09-78DCC5B74D1B}" destId="{19D8DF05-48CC-2341-A3C1-8DB01B1CCBE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{B43E69ED-2240-A04E-BD06-9590D7905BC3}" type="presOf" srcId="{D78EC93C-13AF-3643-8C51-1D0423530C0F}" destId="{E09D7416-4BCB-F34F-A30D-7FF8E48C3BBC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{BB1AE906-2DE0-2142-B231-A3BAD59B3C5B}" srcId="{96117D48-6529-6F4A-9E09-78DCC5B74D1B}" destId="{3E3E927C-85CA-2D4E-B34B-96F38E32B69B}" srcOrd="1" destOrd="0" parTransId="{45C1948F-4C7D-904E-96B4-3E2C0B9ACF46}" sibTransId="{B1C88144-E258-0243-809B-4D99E0E1C4F3}"/>
+    <dgm:cxn modelId="{17736353-BCB0-1446-82B5-2C4E2FA86313}" type="presParOf" srcId="{19D8DF05-48CC-2341-A3C1-8DB01B1CCBE4}" destId="{FDA02DCF-BEB1-0D48-82B9-F701DDF52B4C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{8185E868-2B7E-7143-91BC-2D95BB568FDE}" type="presParOf" srcId="{19D8DF05-48CC-2341-A3C1-8DB01B1CCBE4}" destId="{AED72805-5689-A54D-8A6E-02E29C77CF3F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{9C0E011E-EFFF-2F49-9E9E-87F479B880CB}" type="presParOf" srcId="{19D8DF05-48CC-2341-A3C1-8DB01B1CCBE4}" destId="{BCBC9BFC-A5B6-F24E-A6B0-D52528654255}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{80473541-CE01-474C-B3B9-C530EB4BD08D}" type="presParOf" srcId="{BCBC9BFC-A5B6-F24E-A6B0-D52528654255}" destId="{E6290DE8-7D5E-AA4F-BE21-3F93D28BBFF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{80CDD73A-A319-7048-B60F-3AF5151D9B7C}" type="presParOf" srcId="{BCBC9BFC-A5B6-F24E-A6B0-D52528654255}" destId="{EC28B2C8-1BB1-1C4B-B157-7FE753C5FD00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{7A3A611C-2FA3-B64E-8F97-4516CEE1F801}" type="presParOf" srcId="{BCBC9BFC-A5B6-F24E-A6B0-D52528654255}" destId="{799F9B6E-CC5E-DD48-98F7-CA3E5CF81D86}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{6026273D-08B8-2A4E-A1CB-3A6E45A5477C}" type="presParOf" srcId="{799F9B6E-CC5E-DD48-98F7-CA3E5CF81D86}" destId="{BD0C4F9D-9971-3B4E-9CEC-8AF5755ABE5F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{8F0DC993-C57E-8E45-B497-BDF93CA14657}" type="presParOf" srcId="{799F9B6E-CC5E-DD48-98F7-CA3E5CF81D86}" destId="{59E0E241-0B3F-734D-8356-EEEBB9F2DBF2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{C0ADB460-C0A0-E64C-A7CA-C5A553379D5C}" type="presParOf" srcId="{799F9B6E-CC5E-DD48-98F7-CA3E5CF81D86}" destId="{31AAF45C-1F15-4048-A1FE-BB90CE1F0BDE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{DF9B6270-956F-DF45-A984-BB7F66448ED1}" type="presParOf" srcId="{799F9B6E-CC5E-DD48-98F7-CA3E5CF81D86}" destId="{D69FFA80-03F9-B349-A902-DB56D22611E7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{88369AEF-AEAA-7440-970E-91DE11E1BF9D}" type="presParOf" srcId="{799F9B6E-CC5E-DD48-98F7-CA3E5CF81D86}" destId="{34D8C236-7DAB-2A49-8A5B-EE83D244A943}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{4FED1B10-7610-174F-BCB1-6D2E41E6C800}" type="presParOf" srcId="{BCBC9BFC-A5B6-F24E-A6B0-D52528654255}" destId="{7A32FFEF-1F0D-8E48-A45A-6508DB0DA099}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{6F77E2F0-E96D-B843-A63F-0DF1CFFFF152}" type="presParOf" srcId="{BCBC9BFC-A5B6-F24E-A6B0-D52528654255}" destId="{4A72B8BE-4FD9-2347-AF8B-42B58B60BF66}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{AD8BF1BC-DB20-AC46-BCD8-3D66E5865F47}" type="presParOf" srcId="{BCBC9BFC-A5B6-F24E-A6B0-D52528654255}" destId="{D5FA6478-DDEE-4443-AEA5-28D2994E077B}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{F1115D19-1C0C-B945-8741-C87888368DA2}" type="presParOf" srcId="{D5FA6478-DDEE-4443-AEA5-28D2994E077B}" destId="{75485C8F-748E-0949-B92A-21EF7C3A4B2C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{6D8B135C-C556-234C-972F-9080A6C55725}" type="presParOf" srcId="{D5FA6478-DDEE-4443-AEA5-28D2994E077B}" destId="{3A28DF44-8E8B-DF42-87CB-A5F3C628B7CD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{B4969084-ECAB-6847-AF50-A78F89D30A2F}" type="presParOf" srcId="{D5FA6478-DDEE-4443-AEA5-28D2994E077B}" destId="{33FB7B96-688C-594B-A2BF-B4DA17105CA4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{4F029106-3DEA-C345-A275-96FA6D208BBA}" type="presParOf" srcId="{D5FA6478-DDEE-4443-AEA5-28D2994E077B}" destId="{E09D7416-4BCB-F34F-A30D-7FF8E48C3BBC}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{F26E72CF-E499-D64E-8B44-4653F7DBF3D5}" type="presParOf" srcId="{D5FA6478-DDEE-4443-AEA5-28D2994E077B}" destId="{802A401E-FB3B-7741-A96B-ACF8DF11A621}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{28CFBA7E-A9DF-F54B-9867-9AAA5A004A60}" type="presParOf" srcId="{19D8DF05-48CC-2341-A3C1-8DB01B1CCBE4}" destId="{67B3E75B-1795-E34E-981E-4C9AD004BF2C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+    <dgm:cxn modelId="{97E6CE0D-8817-704A-89F6-9D52E0132355}" type="presParOf" srcId="{19D8DF05-48CC-2341-A3C1-8DB01B1CCBE4}" destId="{5EE96BBA-121F-F847-BD1D-239B46699033}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
 <file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
@@ -3489,6 +4555,682 @@
         </a:effectRef>
         <a:fontRef idx="minor"/>
       </dsp:style>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{FDA02DCF-BEB1-0D48-82B9-F701DDF52B4C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1923" y="121642"/>
+          <a:ext cx="1268015" cy="1268015"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Input:        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="1" u="none" kern="1200"/>
+            <a:t>' a case '</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="187619" y="307338"/>
+        <a:ext cx="896623" cy="896623"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E6290DE8-7D5E-AA4F-BE21-3F93D28BBFF6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19041445">
+          <a:off x="1252836" y="580664"/>
+          <a:ext cx="414228" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="414228" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{EC28B2C8-1BB1-1C4B-B157-7FE753C5FD00}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="13358555">
+          <a:off x="2904934" y="580664"/>
+          <a:ext cx="414228" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="414228" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{31AAF45C-1F15-4048-A1FE-BB90CE1F0BDE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1612303" y="440359"/>
+          <a:ext cx="148213" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D69FFA80-03F9-B349-A902-DB56D22611E7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1760516" y="125069"/>
+          <a:ext cx="1050966" cy="630580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="106680" tIns="106680" rIns="106680" bIns="106680" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" kern="1200"/>
+            <a:t>Higest frequency</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1760516" y="125069"/>
+        <a:ext cx="1050966" cy="630580"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{34D8C236-7DAB-2A49-8A5B-EE83D244A943}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2811483" y="440359"/>
+          <a:ext cx="148213" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7A32FFEF-1F0D-8E48-A45A-6508DB0DA099}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2558555">
+          <a:off x="1252836" y="930635"/>
+          <a:ext cx="414228" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="414228" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4A72B8BE-4FD9-2347-AF8B-42B58B60BF66}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="8241445">
+          <a:off x="2904934" y="930635"/>
+          <a:ext cx="414228" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="414228" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{33FB7B96-688C-594B-A2BF-B4DA17105CA4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1612303" y="1070940"/>
+          <a:ext cx="148213" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E09D7416-4BCB-F34F-A30D-7FF8E48C3BBC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1760516" y="755650"/>
+          <a:ext cx="1050966" cy="630580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="106680" tIns="106680" rIns="106680" bIns="106680" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" kern="1200"/>
+            <a:t>'a case of'</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1760516" y="755650"/>
+        <a:ext cx="1050966" cy="630580"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{802A401E-FB3B-7741-A96B-ACF8DF11A621}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2811483" y="1070940"/>
+          <a:ext cx="148213" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{5EE96BBA-121F-F847-BD1D-239B46699033}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3302060" y="121642"/>
+          <a:ext cx="1268015" cy="1268015"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Prediction: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200"/>
+            <a:t>' of '</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3487756" y="307338"/>
+        <a:ext cx="896623" cy="896623"/>
+      </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
@@ -3795,7 +5537,2737 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2009/3/layout/SubStepProcess">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="12250"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="6" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="61" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="62" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="3" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="41" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="42" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="8" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="81" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="82" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="0" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="0" destId="3" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="11" srcId="0" destId="4" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:chMax val="7"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" forName="parTx1" refType="w"/>
+      <dgm:constr type="w" for="ch" forName="chLin1" refType="w" refFor="ch" refForName="parTx1" fact="1.38"/>
+      <dgm:constr type="h" for="ch" forName="chLin1" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="spPre1" refType="w" fact="0.27"/>
+      <dgm:constr type="w" for="ch" forName="spPost1" refType="w" fact="0.27"/>
+      <dgm:constr type="h" for="ch" forName="spPre1" refType="h"/>
+      <dgm:constr type="h" for="ch" forName="spPost1" refType="h"/>
+      <dgm:constr type="primFontSz" for="ch" forName="parTx1" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="desTx1" refType="primFontSz" refFor="ch" refForName="parTx1" fact="0.78"/>
+      <dgm:constr type="primFontSz" for="des" forName="desTx1" op="equ"/>
+      <dgm:constr type="w" for="ch" forName="parTx2" refType="w"/>
+      <dgm:constr type="w" for="ch" forName="chLin2" refType="w" refFor="ch" refForName="parTx2" fact="1.38"/>
+      <dgm:constr type="h" for="ch" forName="chLin2" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="spPre2" refType="w" fact="0.54"/>
+      <dgm:constr type="w" for="ch" forName="spPost2" refType="w" fact="0.54"/>
+      <dgm:constr type="h" for="ch" forName="spPre2" refType="h"/>
+      <dgm:constr type="h" for="ch" forName="spPost2" refType="h"/>
+      <dgm:constr type="primFontSz" for="ch" forName="parTx2" refType="primFontSz" refFor="ch" refForName="parTx1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="desTx2" refType="primFontSz" refFor="des" refForName="desTx1" op="equ"/>
+      <dgm:constr type="w" for="ch" forName="parTx3" refType="w"/>
+      <dgm:constr type="w" for="ch" forName="chLin3" refType="w" refFor="ch" refForName="parTx3" fact="1.38"/>
+      <dgm:constr type="h" for="ch" forName="chLin3" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="spPre3" refType="w" fact="0.54"/>
+      <dgm:constr type="w" for="ch" forName="spPost3" refType="w" fact="0.54"/>
+      <dgm:constr type="h" for="ch" forName="spPre3" refType="h"/>
+      <dgm:constr type="h" for="ch" forName="spPost3" refType="h"/>
+      <dgm:constr type="primFontSz" for="ch" forName="parTx3" refType="primFontSz" refFor="ch" refForName="parTx1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="desTx3" refType="primFontSz" refFor="des" refForName="desTx1" op="equ"/>
+      <dgm:constr type="w" for="ch" forName="parTx4" refType="w"/>
+      <dgm:constr type="w" for="ch" forName="chLin4" refType="w" refFor="ch" refForName="parTx4" fact="1.38"/>
+      <dgm:constr type="h" for="ch" forName="chLin4" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="spPre4" refType="w" fact="0.54"/>
+      <dgm:constr type="w" for="ch" forName="spPost4" refType="w" fact="0.54"/>
+      <dgm:constr type="h" for="ch" forName="spPre4" refType="h"/>
+      <dgm:constr type="h" for="ch" forName="spPost4" refType="h"/>
+      <dgm:constr type="primFontSz" for="ch" forName="parTx4" refType="primFontSz" refFor="ch" refForName="parTx1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="desTx4" refType="primFontSz" refFor="des" refForName="desTx1" op="equ"/>
+      <dgm:constr type="w" for="ch" forName="parTx5" refType="w"/>
+      <dgm:constr type="w" for="ch" forName="chLin5" refType="w" refFor="ch" refForName="parTx5" fact="1.38"/>
+      <dgm:constr type="h" for="ch" forName="chLin5" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="spPre5" refType="w" fact="0.54"/>
+      <dgm:constr type="w" for="ch" forName="spPost5" refType="w" fact="0.54"/>
+      <dgm:constr type="h" for="ch" forName="spPre5" refType="h"/>
+      <dgm:constr type="h" for="ch" forName="spPost5" refType="h"/>
+      <dgm:constr type="primFontSz" for="ch" forName="parTx5" refType="primFontSz" refFor="ch" refForName="parTx1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="desTx5" refType="primFontSz" refFor="des" refForName="desTx1" op="equ"/>
+      <dgm:constr type="w" for="ch" forName="parTx6" refType="w"/>
+      <dgm:constr type="w" for="ch" forName="chLin6" refType="w" refFor="ch" refForName="parTx6" fact="1.38"/>
+      <dgm:constr type="h" for="ch" forName="chLin6" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="spPre6" refType="w" fact="0.54"/>
+      <dgm:constr type="w" for="ch" forName="spPost6" refType="w" fact="0.54"/>
+      <dgm:constr type="h" for="ch" forName="spPre6" refType="h"/>
+      <dgm:constr type="h" for="ch" forName="spPost6" refType="h"/>
+      <dgm:constr type="primFontSz" for="ch" forName="parTx6" refType="primFontSz" refFor="ch" refForName="parTx1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="desTx6" refType="primFontSz" refFor="des" refForName="desTx1" op="equ"/>
+      <dgm:constr type="w" for="ch" forName="parTx7" refType="w"/>
+      <dgm:constr type="w" for="ch" forName="chLin7" refType="w" refFor="ch" refForName="parTx7" fact="1.38"/>
+      <dgm:constr type="h" for="ch" forName="chLin7" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="spPre7" refType="w" fact="0.54"/>
+      <dgm:constr type="w" for="ch" forName="spPost7" refType="w" fact="0.54"/>
+      <dgm:constr type="h" for="ch" forName="spPre7" refType="h"/>
+      <dgm:constr type="h" for="ch" forName="spPost7" refType="h"/>
+      <dgm:constr type="primFontSz" for="ch" forName="parTx7" refType="primFontSz" refFor="ch" refForName="parTx1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="desTx7" refType="primFontSz" refFor="des" refForName="desTx1" op="equ"/>
+    </dgm:constrLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:choose name="Name5">
+        <dgm:if name="Name6" axis="self" ptType="node" func="pos" op="equ" val="1">
+          <dgm:layoutNode name="parTx1" styleLbl="node1">
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node"/>
+            <dgm:constrLst>
+              <dgm:constr type="h" refType="w"/>
+              <dgm:constr type="w" refType="h" op="lte"/>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:choose name="Name7">
+            <dgm:if name="Name8" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+              <dgm:layoutNode name="spPre1">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="chLin1">
+                <dgm:alg type="lin">
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="w" for="ch" forName="txAndLines1" refType="w" fact="0.77"/>
+                  <dgm:constr type="w" for="ch" forName="top1" refType="w" refFor="ch" refForName="txAndLines1" fact="0.78"/>
+                </dgm:constrLst>
+                <dgm:forEach name="Name9" axis="ch">
+                  <dgm:forEach name="Name10" axis="self" ptType="parTrans">
+                    <dgm:layoutNode name="Name11" styleLbl="parChTrans1D1">
+                      <dgm:choose name="Name12">
+                        <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="dstNode" val="anchor1"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name14">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="srcNode" val="parTx1"/>
+                            <dgm:param type="dstNode" val="anchor1"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst>
+                        <dgm:constr type="connDist"/>
+                        <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:forEach name="Name15" axis="self" ptType="node">
+                    <dgm:choose name="Name16">
+                      <dgm:if name="Name17" axis="par ch" ptType="node node" func="cnt" op="equ" val="1">
+                        <dgm:layoutNode name="top1">
+                          <dgm:alg type="sp"/>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:constrLst>
+                            <dgm:constr type="h" refType="w" fact="0.6"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:if>
+                      <dgm:else name="Name18"/>
+                    </dgm:choose>
+                    <dgm:layoutNode name="txAndLines1">
+                      <dgm:choose name="Name19">
+                        <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="lin"/>
+                        </dgm:if>
+                        <dgm:else name="Name21">
+                          <dgm:alg type="lin">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:choose name="Name22">
+                        <dgm:if name="Name23" axis="root ch" ptType="all node" func="cnt" op="gte" val="2">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor1" refType="w"/>
+                            <dgm:constr type="w" for="ch" forName="backup1" refType="w" fact="-1"/>
+                            <dgm:constr type="w" for="ch" forName="preLine1" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx1" refType="w" fact="0.78"/>
+                            <dgm:constr type="w" for="ch" forName="postLine1" refType="w" fact="0.11"/>
+                          </dgm:constrLst>
+                        </dgm:if>
+                        <dgm:else name="Name24">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor1" refType="w" fact="0.89"/>
+                            <dgm:constr type="w" for="ch" forName="backup1" refType="w" fact="-0.89"/>
+                            <dgm:constr type="w" for="ch" forName="preLine1" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx1" refType="w" fact="0.78"/>
+                          </dgm:constrLst>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:layoutNode name="anchor1" moveWith="desTx1">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="backup1" moveWith="desTx1">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="preLine1" styleLbl="parChTrans1D1" moveWith="desTx1">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="desTx1" styleLbl="revTx">
+                        <dgm:varLst>
+                          <dgm:bulletEnabled val="1"/>
+                        </dgm:varLst>
+                        <dgm:alg type="tx"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf axis="desOrSelf" ptType="node"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="h" refType="w" fact="0.6"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                      <dgm:choose name="Name25">
+                        <dgm:if name="Name26" axis="root ch" ptType="all node" func="cnt" op="gte" val="2">
+                          <dgm:layoutNode name="postLine1" styleLbl="parChTrans1D1" moveWith="desTx1">
+                            <dgm:alg type="sp"/>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                          </dgm:layoutNode>
+                        </dgm:if>
+                        <dgm:else name="Name27"/>
+                      </dgm:choose>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:choose name="Name28">
+                    <dgm:if name="Name29" axis="root ch" ptType="all node" func="cnt" op="gte" val="2">
+                      <dgm:forEach name="Name30" axis="self" ptType="parTrans">
+                        <dgm:layoutNode name="Name31" styleLbl="parChTrans1D1">
+                          <dgm:choose name="Name32">
+                            <dgm:if name="Name33" func="var" arg="dir" op="equ" val="norm">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midL"/>
+                                <dgm:param type="srcNode" val="parTx2"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="dstNode" val="anchor1"/>
+                              </dgm:alg>
+                            </dgm:if>
+                            <dgm:else name="Name34">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midR"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="srcNode" val="parTx2"/>
+                                <dgm:param type="dstNode" val="anchor1"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:presOf/>
+                          <dgm:constrLst>
+                            <dgm:constr type="connDist"/>
+                            <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                            <dgm:constr type="endPad"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:forEach>
+                    </dgm:if>
+                    <dgm:else name="Name35"/>
+                  </dgm:choose>
+                </dgm:forEach>
+              </dgm:layoutNode>
+              <dgm:choose name="Name36">
+                <dgm:if name="Name37" axis="root ch" ptType="all node" func="cnt" op="gte" val="2">
+                  <dgm:layoutNode name="spPost1">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                  </dgm:layoutNode>
+                </dgm:if>
+                <dgm:else name="Name38"/>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:else name="Name39"/>
+          </dgm:choose>
+        </dgm:if>
+        <dgm:if name="Name40" axis="self" ptType="node" func="pos" op="equ" val="2">
+          <dgm:layoutNode name="parTx2" styleLbl="node1">
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node"/>
+            <dgm:constrLst>
+              <dgm:constr type="h" refType="w"/>
+              <dgm:constr type="w" refType="h" op="lte"/>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:choose name="Name41">
+            <dgm:if name="Name42" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+              <dgm:layoutNode name="spPre2">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="chLin2">
+                <dgm:alg type="lin">
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="w" for="ch" forName="txAndLines2" refType="w" fact="0.77"/>
+                  <dgm:constr type="w" for="ch" forName="top2" refType="w" refFor="ch" refForName="txAndLines2" fact="0.78"/>
+                </dgm:constrLst>
+                <dgm:forEach name="Name43" axis="ch">
+                  <dgm:forEach name="Name44" axis="self" ptType="parTrans">
+                    <dgm:layoutNode name="Name45" styleLbl="parChTrans1D1">
+                      <dgm:choose name="Name46">
+                        <dgm:if name="Name47" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="dstNode" val="anchor2"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name48">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="srcNode" val="parTx2"/>
+                            <dgm:param type="dstNode" val="anchor2"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst>
+                        <dgm:constr type="connDist"/>
+                        <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:forEach name="Name49" axis="self" ptType="node">
+                    <dgm:choose name="Name50">
+                      <dgm:if name="Name51" axis="par ch" ptType="node node" func="cnt" op="equ" val="1">
+                        <dgm:layoutNode name="top2">
+                          <dgm:alg type="sp"/>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:constrLst>
+                            <dgm:constr type="h" refType="w" fact="0.6"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:if>
+                      <dgm:else name="Name52"/>
+                    </dgm:choose>
+                    <dgm:layoutNode name="txAndLines2">
+                      <dgm:choose name="Name53">
+                        <dgm:if name="Name54" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="lin"/>
+                        </dgm:if>
+                        <dgm:else name="Name55">
+                          <dgm:alg type="lin">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:choose name="Name56">
+                        <dgm:if name="Name57" axis="root ch" ptType="all node" func="cnt" op="gte" val="3">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor2" refType="w"/>
+                            <dgm:constr type="w" for="ch" forName="backup2" refType="w" fact="-1"/>
+                            <dgm:constr type="w" for="ch" forName="preLine2" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx2" refType="w" fact="0.78"/>
+                            <dgm:constr type="w" for="ch" forName="postLine2" refType="w" fact="0.11"/>
+                          </dgm:constrLst>
+                        </dgm:if>
+                        <dgm:else name="Name58">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor2" refType="w" fact="0.89"/>
+                            <dgm:constr type="w" for="ch" forName="backup2" refType="w" fact="-0.89"/>
+                            <dgm:constr type="w" for="ch" forName="preLine2" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx2" refType="w" fact="0.78"/>
+                          </dgm:constrLst>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:layoutNode name="anchor2" moveWith="desTx2">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="backup2" moveWith="desTx2">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="preLine2" styleLbl="parChTrans1D1" moveWith="desTx2">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="desTx2" styleLbl="revTx">
+                        <dgm:varLst>
+                          <dgm:bulletEnabled val="1"/>
+                        </dgm:varLst>
+                        <dgm:alg type="tx"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf axis="desOrSelf" ptType="node"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="h" refType="w" fact="0.6"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                      <dgm:choose name="Name59">
+                        <dgm:if name="Name60" axis="root ch" ptType="all node" func="cnt" op="gte" val="3">
+                          <dgm:layoutNode name="postLine2" styleLbl="parChTrans1D1" moveWith="desTx2">
+                            <dgm:alg type="sp"/>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                          </dgm:layoutNode>
+                        </dgm:if>
+                        <dgm:else name="Name61"/>
+                      </dgm:choose>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:choose name="Name62">
+                    <dgm:if name="Name63" axis="root ch" ptType="all node" func="cnt" op="gte" val="3">
+                      <dgm:forEach name="Name64" axis="self" ptType="parTrans">
+                        <dgm:layoutNode name="Name65" styleLbl="parChTrans1D1">
+                          <dgm:choose name="Name66">
+                            <dgm:if name="Name67" func="var" arg="dir" op="equ" val="norm">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midL"/>
+                                <dgm:param type="srcNode" val="parTx3"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="dstNode" val="anchor2"/>
+                              </dgm:alg>
+                            </dgm:if>
+                            <dgm:else name="Name68">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midR"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="srcNode" val="parTx3"/>
+                                <dgm:param type="dstNode" val="anchor2"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:presOf/>
+                          <dgm:constrLst>
+                            <dgm:constr type="connDist"/>
+                            <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                            <dgm:constr type="endPad"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:forEach>
+                    </dgm:if>
+                    <dgm:else name="Name69"/>
+                  </dgm:choose>
+                </dgm:forEach>
+              </dgm:layoutNode>
+              <dgm:choose name="Name70">
+                <dgm:if name="Name71" axis="root ch" ptType="all node" func="cnt" op="gte" val="3">
+                  <dgm:layoutNode name="spPost2">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                  </dgm:layoutNode>
+                </dgm:if>
+                <dgm:else name="Name72"/>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:else name="Name73"/>
+          </dgm:choose>
+        </dgm:if>
+        <dgm:if name="Name74" axis="self" ptType="node" func="pos" op="equ" val="3">
+          <dgm:layoutNode name="parTx3" styleLbl="node1">
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node"/>
+            <dgm:constrLst>
+              <dgm:constr type="h" refType="w"/>
+              <dgm:constr type="w" refType="h" op="lte"/>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:choose name="Name75">
+            <dgm:if name="Name76" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+              <dgm:layoutNode name="spPre3">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="chLin3">
+                <dgm:alg type="lin">
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="w" for="ch" forName="txAndLines3" refType="w" fact="0.77"/>
+                  <dgm:constr type="w" for="ch" forName="top3" refType="w" refFor="ch" refForName="txAndLines3" fact="0.78"/>
+                </dgm:constrLst>
+                <dgm:forEach name="Name77" axis="ch">
+                  <dgm:forEach name="Name78" axis="self" ptType="parTrans">
+                    <dgm:layoutNode name="Name79" styleLbl="parChTrans1D1">
+                      <dgm:choose name="Name80">
+                        <dgm:if name="Name81" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="dstNode" val="anchor3"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name82">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="srcNode" val="parTx3"/>
+                            <dgm:param type="dstNode" val="anchor3"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst>
+                        <dgm:constr type="connDist"/>
+                        <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:forEach name="Name83" axis="self" ptType="node">
+                    <dgm:choose name="Name84">
+                      <dgm:if name="Name85" axis="par ch" ptType="node node" func="cnt" op="equ" val="1">
+                        <dgm:layoutNode name="top3">
+                          <dgm:alg type="sp"/>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:constrLst>
+                            <dgm:constr type="h" refType="w" fact="0.6"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:if>
+                      <dgm:else name="Name86"/>
+                    </dgm:choose>
+                    <dgm:layoutNode name="txAndLines3">
+                      <dgm:choose name="Name87">
+                        <dgm:if name="Name88" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="lin"/>
+                        </dgm:if>
+                        <dgm:else name="Name89">
+                          <dgm:alg type="lin">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:choose name="Name90">
+                        <dgm:if name="Name91" axis="root ch" ptType="all node" func="cnt" op="gte" val="4">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor3" refType="w"/>
+                            <dgm:constr type="w" for="ch" forName="backup3" refType="w" fact="-1"/>
+                            <dgm:constr type="w" for="ch" forName="preLine3" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx3" refType="w" fact="0.78"/>
+                            <dgm:constr type="w" for="ch" forName="postLine3" refType="w" fact="0.11"/>
+                          </dgm:constrLst>
+                        </dgm:if>
+                        <dgm:else name="Name92">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor3" refType="w" fact="0.89"/>
+                            <dgm:constr type="w" for="ch" forName="backup3" refType="w" fact="-0.89"/>
+                            <dgm:constr type="w" for="ch" forName="preLine3" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx3" refType="w" fact="0.78"/>
+                          </dgm:constrLst>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:layoutNode name="anchor3" moveWith="desTx3">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="backup3" moveWith="desTx3">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="preLine3" styleLbl="parChTrans1D1" moveWith="desTx3">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="desTx3" styleLbl="revTx">
+                        <dgm:varLst>
+                          <dgm:bulletEnabled val="1"/>
+                        </dgm:varLst>
+                        <dgm:alg type="tx"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf axis="desOrSelf" ptType="node"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="h" refType="w" fact="0.6"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                      <dgm:choose name="Name93">
+                        <dgm:if name="Name94" axis="root ch" ptType="all node" func="cnt" op="gte" val="4">
+                          <dgm:layoutNode name="postLine3" styleLbl="parChTrans1D1" moveWith="desTx3">
+                            <dgm:alg type="sp"/>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                          </dgm:layoutNode>
+                        </dgm:if>
+                        <dgm:else name="Name95"/>
+                      </dgm:choose>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:choose name="Name96">
+                    <dgm:if name="Name97" axis="root ch" ptType="all node" func="cnt" op="gte" val="4">
+                      <dgm:forEach name="Name98" axis="self" ptType="parTrans">
+                        <dgm:layoutNode name="Name99" styleLbl="parChTrans1D1">
+                          <dgm:choose name="Name100">
+                            <dgm:if name="Name101" func="var" arg="dir" op="equ" val="norm">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midL"/>
+                                <dgm:param type="srcNode" val="parTx4"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="dstNode" val="anchor3"/>
+                              </dgm:alg>
+                            </dgm:if>
+                            <dgm:else name="Name102">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midR"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="srcNode" val="parTx4"/>
+                                <dgm:param type="dstNode" val="anchor3"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:presOf/>
+                          <dgm:constrLst>
+                            <dgm:constr type="connDist"/>
+                            <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                            <dgm:constr type="endPad"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:forEach>
+                    </dgm:if>
+                    <dgm:else name="Name103"/>
+                  </dgm:choose>
+                </dgm:forEach>
+              </dgm:layoutNode>
+              <dgm:choose name="Name104">
+                <dgm:if name="Name105" axis="root ch" ptType="all node" func="cnt" op="gte" val="4">
+                  <dgm:layoutNode name="spPost3">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                  </dgm:layoutNode>
+                </dgm:if>
+                <dgm:else name="Name106"/>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:else name="Name107"/>
+          </dgm:choose>
+        </dgm:if>
+        <dgm:if name="Name108" axis="self" ptType="node" func="pos" op="equ" val="4">
+          <dgm:layoutNode name="parTx4" styleLbl="node1">
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node"/>
+            <dgm:constrLst>
+              <dgm:constr type="h" refType="w"/>
+              <dgm:constr type="w" refType="h" op="lte"/>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:choose name="Name109">
+            <dgm:if name="Name110" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+              <dgm:layoutNode name="spPre4">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="chLin4">
+                <dgm:alg type="lin">
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="w" for="ch" forName="txAndLines4" refType="w" fact="0.77"/>
+                  <dgm:constr type="w" for="ch" forName="top4" refType="w" refFor="ch" refForName="txAndLines4" fact="0.78"/>
+                </dgm:constrLst>
+                <dgm:forEach name="Name111" axis="ch">
+                  <dgm:forEach name="Name112" axis="self" ptType="parTrans">
+                    <dgm:layoutNode name="Name113" styleLbl="parChTrans1D1">
+                      <dgm:choose name="Name114">
+                        <dgm:if name="Name115" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="dstNode" val="anchor4"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name116">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="srcNode" val="parTx4"/>
+                            <dgm:param type="dstNode" val="anchor4"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst>
+                        <dgm:constr type="connDist"/>
+                        <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:forEach name="Name117" axis="self" ptType="node">
+                    <dgm:choose name="Name118">
+                      <dgm:if name="Name119" axis="par ch" ptType="node node" func="cnt" op="equ" val="1">
+                        <dgm:layoutNode name="top4">
+                          <dgm:alg type="sp"/>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:constrLst>
+                            <dgm:constr type="h" refType="w" fact="0.6"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:if>
+                      <dgm:else name="Name120"/>
+                    </dgm:choose>
+                    <dgm:layoutNode name="txAndLines4">
+                      <dgm:choose name="Name121">
+                        <dgm:if name="Name122" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="lin"/>
+                        </dgm:if>
+                        <dgm:else name="Name123">
+                          <dgm:alg type="lin">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:choose name="Name124">
+                        <dgm:if name="Name125" axis="root ch" ptType="all node" func="cnt" op="gte" val="5">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor4" refType="w"/>
+                            <dgm:constr type="w" for="ch" forName="backup4" refType="w" fact="-1"/>
+                            <dgm:constr type="w" for="ch" forName="preLine4" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx4" refType="w" fact="0.78"/>
+                            <dgm:constr type="w" for="ch" forName="postLine4" refType="w" fact="0.11"/>
+                          </dgm:constrLst>
+                        </dgm:if>
+                        <dgm:else name="Name126">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor4" refType="w" fact="0.89"/>
+                            <dgm:constr type="w" for="ch" forName="backup4" refType="w" fact="-0.89"/>
+                            <dgm:constr type="w" for="ch" forName="preLine4" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx4" refType="w" fact="0.78"/>
+                          </dgm:constrLst>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:layoutNode name="anchor4" moveWith="desTx4">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="backup4" moveWith="desTx4">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="preLine4" styleLbl="parChTrans1D1" moveWith="desTx4">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="desTx4" styleLbl="revTx">
+                        <dgm:varLst>
+                          <dgm:bulletEnabled val="1"/>
+                        </dgm:varLst>
+                        <dgm:alg type="tx"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf axis="desOrSelf" ptType="node"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="h" refType="w" fact="0.6"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                      <dgm:choose name="Name127">
+                        <dgm:if name="Name128" axis="root ch" ptType="all node" func="cnt" op="gte" val="5">
+                          <dgm:layoutNode name="postLine4" styleLbl="parChTrans1D1" moveWith="desTx4">
+                            <dgm:alg type="sp"/>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                          </dgm:layoutNode>
+                        </dgm:if>
+                        <dgm:else name="Name129"/>
+                      </dgm:choose>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:choose name="Name130">
+                    <dgm:if name="Name131" axis="root ch" ptType="all node" func="cnt" op="gte" val="5">
+                      <dgm:forEach name="Name132" axis="self" ptType="parTrans">
+                        <dgm:layoutNode name="Name133" styleLbl="parChTrans1D1">
+                          <dgm:choose name="Name134">
+                            <dgm:if name="Name135" func="var" arg="dir" op="equ" val="norm">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midL"/>
+                                <dgm:param type="srcNode" val="parTx5"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="dstNode" val="anchor4"/>
+                              </dgm:alg>
+                            </dgm:if>
+                            <dgm:else name="Name136">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midR"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="srcNode" val="parTx5"/>
+                                <dgm:param type="dstNode" val="anchor4"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:presOf/>
+                          <dgm:constrLst>
+                            <dgm:constr type="connDist"/>
+                            <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                            <dgm:constr type="endPad"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:forEach>
+                    </dgm:if>
+                    <dgm:else name="Name137"/>
+                  </dgm:choose>
+                </dgm:forEach>
+              </dgm:layoutNode>
+              <dgm:choose name="Name138">
+                <dgm:if name="Name139" axis="root ch" ptType="all node" func="cnt" op="gte" val="5">
+                  <dgm:layoutNode name="spPost4">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                  </dgm:layoutNode>
+                </dgm:if>
+                <dgm:else name="Name140"/>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:else name="Name141"/>
+          </dgm:choose>
+        </dgm:if>
+        <dgm:if name="Name142" axis="self" ptType="node" func="pos" op="equ" val="5">
+          <dgm:layoutNode name="parTx5" styleLbl="node1">
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node"/>
+            <dgm:constrLst>
+              <dgm:constr type="h" refType="w"/>
+              <dgm:constr type="w" refType="h" op="lte"/>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:choose name="Name143">
+            <dgm:if name="Name144" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+              <dgm:layoutNode name="spPre5">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="chLin5">
+                <dgm:alg type="lin">
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="w" for="ch" forName="txAndLines5" refType="w" fact="0.77"/>
+                  <dgm:constr type="w" for="ch" forName="top5" refType="w" refFor="ch" refForName="txAndLines5" fact="0.78"/>
+                </dgm:constrLst>
+                <dgm:forEach name="Name145" axis="ch">
+                  <dgm:forEach name="Name146" axis="self" ptType="parTrans">
+                    <dgm:layoutNode name="Name147" styleLbl="parChTrans1D1">
+                      <dgm:choose name="Name148">
+                        <dgm:if name="Name149" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="dstNode" val="anchor5"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name150">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="srcNode" val="parTx5"/>
+                            <dgm:param type="dstNode" val="anchor5"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst>
+                        <dgm:constr type="connDist"/>
+                        <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:forEach name="Name151" axis="self" ptType="node">
+                    <dgm:choose name="Name152">
+                      <dgm:if name="Name153" axis="par ch" ptType="node node" func="cnt" op="equ" val="1">
+                        <dgm:layoutNode name="top5">
+                          <dgm:alg type="sp"/>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:constrLst>
+                            <dgm:constr type="h" refType="w" fact="0.6"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:if>
+                      <dgm:else name="Name154"/>
+                    </dgm:choose>
+                    <dgm:layoutNode name="txAndLines5">
+                      <dgm:choose name="Name155">
+                        <dgm:if name="Name156" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="lin"/>
+                        </dgm:if>
+                        <dgm:else name="Name157">
+                          <dgm:alg type="lin">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:choose name="Name158">
+                        <dgm:if name="Name159" axis="root ch" ptType="all node" func="cnt" op="gte" val="6">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor5" refType="w"/>
+                            <dgm:constr type="w" for="ch" forName="backup5" refType="w" fact="-1"/>
+                            <dgm:constr type="w" for="ch" forName="preLine5" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx5" refType="w" fact="0.78"/>
+                            <dgm:constr type="w" for="ch" forName="postLine5" refType="w" fact="0.11"/>
+                          </dgm:constrLst>
+                        </dgm:if>
+                        <dgm:else name="Name160">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor5" refType="w" fact="0.89"/>
+                            <dgm:constr type="w" for="ch" forName="backup5" refType="w" fact="-0.89"/>
+                            <dgm:constr type="w" for="ch" forName="preLine5" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx5" refType="w" fact="0.78"/>
+                          </dgm:constrLst>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:layoutNode name="anchor5" moveWith="desTx5">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="backup5" moveWith="desTx5">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="preLine5" styleLbl="parChTrans1D1" moveWith="desTx5">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="desTx5" styleLbl="revTx">
+                        <dgm:varLst>
+                          <dgm:bulletEnabled val="1"/>
+                        </dgm:varLst>
+                        <dgm:alg type="tx"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf axis="desOrSelf" ptType="node"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="h" refType="w" fact="0.6"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                      <dgm:choose name="Name161">
+                        <dgm:if name="Name162" axis="root ch" ptType="all node" func="cnt" op="gte" val="6">
+                          <dgm:layoutNode name="postLine5" styleLbl="parChTrans1D1" moveWith="desTx5">
+                            <dgm:alg type="sp"/>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                          </dgm:layoutNode>
+                        </dgm:if>
+                        <dgm:else name="Name163"/>
+                      </dgm:choose>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:choose name="Name164">
+                    <dgm:if name="Name165" axis="root ch" ptType="all node" func="cnt" op="gte" val="6">
+                      <dgm:forEach name="Name166" axis="self" ptType="parTrans">
+                        <dgm:layoutNode name="Name167" styleLbl="parChTrans1D1">
+                          <dgm:choose name="Name168">
+                            <dgm:if name="Name169" func="var" arg="dir" op="equ" val="norm">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midL"/>
+                                <dgm:param type="srcNode" val="parTx6"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="dstNode" val="anchor5"/>
+                              </dgm:alg>
+                            </dgm:if>
+                            <dgm:else name="Name170">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midR"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="srcNode" val="parTx6"/>
+                                <dgm:param type="dstNode" val="anchor5"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:presOf/>
+                          <dgm:constrLst>
+                            <dgm:constr type="connDist"/>
+                            <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                            <dgm:constr type="endPad"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:forEach>
+                    </dgm:if>
+                    <dgm:else name="Name171"/>
+                  </dgm:choose>
+                </dgm:forEach>
+              </dgm:layoutNode>
+              <dgm:choose name="Name172">
+                <dgm:if name="Name173" axis="root ch" ptType="all node" func="cnt" op="gte" val="6">
+                  <dgm:layoutNode name="spPost5">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                  </dgm:layoutNode>
+                </dgm:if>
+                <dgm:else name="Name174"/>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:else name="Name175"/>
+          </dgm:choose>
+        </dgm:if>
+        <dgm:if name="Name176" axis="self" ptType="node" func="pos" op="equ" val="6">
+          <dgm:layoutNode name="parTx6" styleLbl="node1">
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node"/>
+            <dgm:constrLst>
+              <dgm:constr type="h" refType="w"/>
+              <dgm:constr type="w" refType="h" op="lte"/>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:choose name="Name177">
+            <dgm:if name="Name178" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+              <dgm:layoutNode name="spPre6">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="chLin6">
+                <dgm:alg type="lin">
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="w" for="ch" forName="txAndLines6" refType="w" fact="0.77"/>
+                  <dgm:constr type="w" for="ch" forName="top6" refType="w" refFor="ch" refForName="txAndLines6" fact="0.78"/>
+                </dgm:constrLst>
+                <dgm:forEach name="Name179" axis="ch">
+                  <dgm:forEach name="Name180" axis="self" ptType="parTrans">
+                    <dgm:layoutNode name="Name181" styleLbl="parChTrans1D1">
+                      <dgm:choose name="Name182">
+                        <dgm:if name="Name183" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="dstNode" val="anchor6"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name184">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="srcNode" val="parTx6"/>
+                            <dgm:param type="dstNode" val="anchor6"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst>
+                        <dgm:constr type="connDist"/>
+                        <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:forEach name="Name185" axis="self" ptType="node">
+                    <dgm:choose name="Name186">
+                      <dgm:if name="Name187" axis="par ch" ptType="node node" func="cnt" op="equ" val="1">
+                        <dgm:layoutNode name="top6">
+                          <dgm:alg type="sp"/>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:constrLst>
+                            <dgm:constr type="h" refType="w" fact="0.6"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:if>
+                      <dgm:else name="Name188"/>
+                    </dgm:choose>
+                    <dgm:layoutNode name="txAndLines6">
+                      <dgm:choose name="Name189">
+                        <dgm:if name="Name190" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="lin"/>
+                        </dgm:if>
+                        <dgm:else name="Name191">
+                          <dgm:alg type="lin">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:choose name="Name192">
+                        <dgm:if name="Name193" axis="root ch" ptType="all node" func="cnt" op="gte" val="7">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor6" refType="w"/>
+                            <dgm:constr type="w" for="ch" forName="backup6" refType="w" fact="-1"/>
+                            <dgm:constr type="w" for="ch" forName="preLine6" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx6" refType="w" fact="0.78"/>
+                            <dgm:constr type="w" for="ch" forName="postLine6" refType="w" fact="0.11"/>
+                          </dgm:constrLst>
+                        </dgm:if>
+                        <dgm:else name="Name194">
+                          <dgm:constrLst>
+                            <dgm:constr type="w" for="ch" forName="anchor6" refType="w" fact="0.89"/>
+                            <dgm:constr type="w" for="ch" forName="backup6" refType="w" fact="-0.89"/>
+                            <dgm:constr type="w" for="ch" forName="preLine6" refType="w" fact="0.11"/>
+                            <dgm:constr type="w" for="ch" forName="desTx6" refType="w" fact="0.78"/>
+                          </dgm:constrLst>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:layoutNode name="anchor6" moveWith="desTx6">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="backup6" moveWith="desTx6">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="preLine6" styleLbl="parChTrans1D1" moveWith="desTx6">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="desTx6" styleLbl="revTx">
+                        <dgm:varLst>
+                          <dgm:bulletEnabled val="1"/>
+                        </dgm:varLst>
+                        <dgm:alg type="tx"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf axis="desOrSelf" ptType="node"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="h" refType="w" fact="0.6"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                      <dgm:choose name="Name195">
+                        <dgm:if name="Name196" axis="root ch" ptType="all node" func="cnt" op="gte" val="7">
+                          <dgm:layoutNode name="postLine6" styleLbl="parChTrans1D1" moveWith="desTx6">
+                            <dgm:alg type="sp"/>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                          </dgm:layoutNode>
+                        </dgm:if>
+                        <dgm:else name="Name197"/>
+                      </dgm:choose>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:choose name="Name198">
+                    <dgm:if name="Name199" axis="root ch" ptType="all node" func="cnt" op="gte" val="7">
+                      <dgm:forEach name="Name200" axis="self" ptType="parTrans">
+                        <dgm:layoutNode name="Name201" styleLbl="parChTrans1D1">
+                          <dgm:choose name="Name202">
+                            <dgm:if name="Name203" func="var" arg="dir" op="equ" val="norm">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midL"/>
+                                <dgm:param type="srcNode" val="parTx7"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="dstNode" val="anchor6"/>
+                              </dgm:alg>
+                            </dgm:if>
+                            <dgm:else name="Name204">
+                              <dgm:alg type="conn">
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="begPts" val="midR"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="srcNode" val="parTx7"/>
+                                <dgm:param type="dstNode" val="anchor6"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:presOf/>
+                          <dgm:constrLst>
+                            <dgm:constr type="connDist"/>
+                            <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                            <dgm:constr type="endPad"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:forEach>
+                    </dgm:if>
+                    <dgm:else name="Name205"/>
+                  </dgm:choose>
+                </dgm:forEach>
+              </dgm:layoutNode>
+              <dgm:choose name="Name206">
+                <dgm:if name="Name207" axis="root ch" ptType="all node" func="cnt" op="gte" val="7">
+                  <dgm:layoutNode name="spPost6">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                  </dgm:layoutNode>
+                </dgm:if>
+                <dgm:else name="Name208"/>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:else name="Name209"/>
+          </dgm:choose>
+        </dgm:if>
+        <dgm:if name="Name210" axis="self" ptType="node" func="pos" op="equ" val="7">
+          <dgm:layoutNode name="parTx7" styleLbl="node1">
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node"/>
+            <dgm:constrLst>
+              <dgm:constr type="h" refType="w"/>
+              <dgm:constr type="w" refType="h" op="lte"/>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:choose name="Name211">
+            <dgm:if name="Name212" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+              <dgm:layoutNode name="spPre7">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="chLin7">
+                <dgm:alg type="lin">
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="w" for="ch" forName="txAndLines7" refType="w" fact="0.77"/>
+                  <dgm:constr type="w" for="ch" forName="top7" refType="w" refFor="ch" refForName="txAndLines7" fact="0.78"/>
+                </dgm:constrLst>
+                <dgm:forEach name="Name213" axis="ch">
+                  <dgm:forEach name="Name214" axis="self" ptType="parTrans">
+                    <dgm:layoutNode name="Name215" styleLbl="parChTrans1D1">
+                      <dgm:choose name="Name216">
+                        <dgm:if name="Name217" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="dstNode" val="anchor7"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name218">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="srcNode" val="parTx7"/>
+                            <dgm:param type="dstNode" val="anchor7"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst>
+                        <dgm:constr type="connDist"/>
+                        <dgm:constr type="begPad" refType="connDist" fact="0.11"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:forEach name="Name219" axis="self" ptType="node">
+                    <dgm:choose name="Name220">
+                      <dgm:if name="Name221" axis="par ch" ptType="node node" func="cnt" op="equ" val="1">
+                        <dgm:layoutNode name="top7">
+                          <dgm:alg type="sp"/>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:constrLst>
+                            <dgm:constr type="h" refType="w" fact="0.6"/>
+                          </dgm:constrLst>
+                        </dgm:layoutNode>
+                      </dgm:if>
+                      <dgm:else name="Name222"/>
+                    </dgm:choose>
+                    <dgm:layoutNode name="txAndLines7">
+                      <dgm:choose name="Name223">
+                        <dgm:if name="Name224" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="lin"/>
+                        </dgm:if>
+                        <dgm:else name="Name225">
+                          <dgm:alg type="lin">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst>
+                        <dgm:constr type="w" for="ch" forName="anchor7" refType="w" fact="0.89"/>
+                        <dgm:constr type="w" for="ch" forName="backup7" refType="w" fact="-0.89"/>
+                        <dgm:constr type="w" for="ch" forName="preLine7" refType="w" fact="0.11"/>
+                        <dgm:constr type="w" for="ch" forName="desTx7" refType="w" fact="0.78"/>
+                      </dgm:constrLst>
+                      <dgm:layoutNode name="anchor7" moveWith="desTx7">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="backup7" moveWith="desTx7">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="preLine7" styleLbl="parChTrans1D1" moveWith="desTx7">
+                        <dgm:alg type="sp"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="line" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="desTx7" styleLbl="revTx">
+                        <dgm:varLst>
+                          <dgm:bulletEnabled val="1"/>
+                        </dgm:varLst>
+                        <dgm:alg type="tx"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf axis="desOrSelf" ptType="node"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="h" refType="w" fact="0.6"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                </dgm:forEach>
+              </dgm:layoutNode>
+            </dgm:if>
+            <dgm:else name="Name226"/>
+          </dgm:choose>
+        </dgm:if>
+        <dgm:else name="Name227"/>
+      </dgm:choose>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -4847,6 +9319,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Diagram 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5188,8 +9695,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
